--- a/nodes_source_analyses/bunkers/bunkers_p2l_point_source_co2.converter.xlsx
+++ b/nodes_source_analyses/bunkers/bunkers_p2l_point_source_co2.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/bunkers/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19983755-EF33-004A-B9B6-6E7AE92A74E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-10340" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="201">
   <si>
     <t>Source</t>
   </si>
@@ -334,9 +341,6 @@
     <t>typical_input_capacity</t>
   </si>
   <si>
-    <t>included in initial_investment</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
@@ -717,12 +721,15 @@
   </si>
   <si>
     <t>Overall lifetime</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -730,7 +737,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="[$-413]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1830,7 +1837,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2003,7 +2010,6 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2044,7 +2050,6 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2622,13 +2627,16 @@
     <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2651,7 +2659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2689,7 +2703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2727,7 +2747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2765,7 +2791,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3286,8 +3318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -3296,50 +3328,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -3348,29 +3380,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="71"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="72" t="s">
         <v>26</v>
@@ -3379,33 +3411,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="72" t="s">
         <v>31</v>
@@ -3414,49 +3446,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="72"/>
       <c r="C17" s="77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="72"/>
       <c r="C18" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="72"/>
       <c r="C19" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="80"/>
       <c r="C21" s="82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="80"/>
       <c r="C22" s="83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="80"/>
       <c r="C23" s="84" t="s">
         <v>39</v>
@@ -3469,78 +3501,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="2" width="3.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="193" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="196"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="198"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="196"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="199"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="201"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="36"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -3551,7 +3583,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="25" customFormat="1">
       <c r="B9" s="23"/>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -3572,7 +3604,7 @@
       </c>
       <c r="J9" s="87"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="25" customFormat="1">
       <c r="B10" s="24"/>
       <c r="C10" s="12"/>
       <c r="D10" s="32"/>
@@ -3583,7 +3615,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>42</v>
@@ -3596,120 +3628,120 @@
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="148" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="149"/>
-      <c r="C12" s="141" t="s">
+    <row r="12" spans="1:11" s="147" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="148"/>
+      <c r="C12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="150">
+      <c r="D12" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="149">
         <f>'Research data'!H7</f>
         <v>295.34734133790732</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="151"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="152"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="140"/>
+      <c r="G12" s="150"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="151"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="149">
         <f>'Research data'!H8</f>
         <v>0.86830069481906247</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="93"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="137"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="13"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="149">
         <f>'Research data'!H9</f>
         <v>0.13169930518093759</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="130"/>
       <c r="H14" s="93"/>
-      <c r="I14" s="137"/>
+      <c r="I14" s="136"/>
       <c r="J14" s="97"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="149">
         <f>'Research data'!H10</f>
         <v>0.59743916609034486</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
-      <c r="I15" s="137"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="97"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="96"/>
       <c r="C16" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="150">
+      <c r="E16" s="149">
         <f>'Research data'!H11</f>
         <v>0.40256083390965514</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
-      <c r="I16" s="137"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="97"/>
     </row>
-    <row r="17" spans="1:11" s="139" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="140"/>
-      <c r="C17" s="141" t="s">
+    <row r="17" spans="1:11" s="138" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="150">
+      <c r="E17" s="149">
         <f>'Research data'!H12</f>
         <v>8000</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="39"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -3720,7 +3752,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="88"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="39"/>
       <c r="C19" s="12" t="s">
         <v>41</v>
@@ -3733,7 +3765,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="39"/>
       <c r="C20" s="38" t="s">
         <v>21</v>
@@ -3741,7 +3773,7 @@
       <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="146">
         <f>'Research data'!H15</f>
         <v>4477015437.3927946</v>
       </c>
@@ -3753,7 +3785,7 @@
       <c r="I20" s="134"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>22</v>
@@ -3761,7 +3793,7 @@
       <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="146">
         <f>'Research data'!H16</f>
         <v>15031046.312178385</v>
       </c>
@@ -3773,7 +3805,7 @@
       <c r="I21" s="134"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="111"/>
       <c r="C22" s="118" t="s">
         <v>65</v>
@@ -3793,15 +3825,15 @@
       <c r="I22" s="134"/>
       <c r="J22" s="115"/>
     </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1">
       <c r="B23" s="111"/>
       <c r="C23" s="118" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="113"/>
-      <c r="E23" s="40">
-        <f>'Research data'!H22</f>
-        <v>0</v>
+      <c r="E23" s="40" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="114"/>
       <c r="G23" s="118" t="s">
@@ -3811,14 +3843,14 @@
       <c r="I23" s="125"/>
       <c r="J23" s="115"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="111"/>
       <c r="C24" s="126" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="113"/>
       <c r="E24" s="40">
-        <f>'Research data'!H23</f>
+        <f>'Research data'!H22</f>
         <v>0</v>
       </c>
       <c r="F24" s="114"/>
@@ -3829,7 +3861,7 @@
       <c r="I24" s="135"/>
       <c r="J24" s="115"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="93" t="s">
@@ -3838,18 +3870,20 @@
       <c r="D25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="192">
-        <v>0.04</v>
+      <c r="E25" s="190">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="93"/>
-      <c r="I25" s="137"/>
+      <c r="I25" s="136" t="s">
+        <v>200</v>
+      </c>
       <c r="J25" s="97"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
@@ -3867,7 +3901,7 @@
       <c r="I26" s="94"/>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93"/>
@@ -3879,7 +3913,7 @@
       <c r="I27" s="99"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="12" t="s">
@@ -3892,7 +3926,7 @@
       <c r="I28" s="99"/>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="93" t="s">
@@ -3902,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="98">
-        <f>'Research data'!H26</f>
+        <f>'Research data'!H25</f>
         <v>20</v>
       </c>
       <c r="F29" s="93"/>
@@ -3913,7 +3947,7 @@
       <c r="I29" s="134"/>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="93" t="s">
@@ -3923,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="98">
-        <f>'Research data'!H27</f>
+        <f>'Research data'!H26</f>
         <v>0</v>
       </c>
       <c r="F30" s="93"/>
@@ -3934,7 +3968,7 @@
       <c r="I30" s="94"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="93" t="s">
@@ -3944,7 +3978,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="98">
-        <f>'Research data'!H28</f>
+        <f>'Research data'!H27</f>
         <v>0</v>
       </c>
       <c r="F31" s="93"/>
@@ -3952,10 +3986,10 @@
         <v>58</v>
       </c>
       <c r="H31" s="93"/>
-      <c r="I31" s="137"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="95"/>
       <c r="B32" s="96"/>
       <c r="C32" s="93" t="s">
@@ -3970,10 +4004,10 @@
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
-      <c r="I32" s="137"/>
+      <c r="I32" s="136"/>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="95"/>
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
@@ -3985,7 +4019,7 @@
       <c r="I33" s="103"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="95"/>
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
@@ -3997,7 +4031,7 @@
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="95"/>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
@@ -4009,7 +4043,7 @@
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="95"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -4021,7 +4055,7 @@
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="95"/>
       <c r="B37" s="95"/>
       <c r="E37" s="95"/>
@@ -4031,7 +4065,7 @@
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="95"/>
       <c r="B38" s="95"/>
       <c r="C38" s="95"/>
@@ -4043,7 +4077,7 @@
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="95"/>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -4055,7 +4089,7 @@
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="95"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
@@ -4067,7 +4101,7 @@
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -4079,10 +4113,10 @@
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="95"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="95"/>
     </row>
   </sheetData>
@@ -4095,42 +4129,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:S29"/>
+  <dimension ref="A2:S28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="3" style="41" customWidth="1"/>
     <col min="3" max="3" width="61" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="41" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="41" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="41" customWidth="1"/>
     <col min="7" max="7" width="3" style="41" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="41" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="41" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="41" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="41" customWidth="1"/>
     <col min="17" max="17" width="11" style="41" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="41" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="41"/>
+    <col min="18" max="18" width="2.42578125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="17" thickBot="1"/>
+    <row r="3" spans="1:19">
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -4150,7 +4184,7 @@
       <c r="R3" s="43"/>
       <c r="S3" s="43"/>
     </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="25" customFormat="1">
       <c r="B4" s="24"/>
       <c r="C4" s="85" t="s">
         <v>18</v>
@@ -4175,7 +4209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="B5" s="44"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -4192,7 +4226,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="51"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="44"/>
       <c r="C6" s="12" t="s">
         <v>42</v>
@@ -4208,17 +4242,17 @@
       <c r="L6" s="10"/>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17" thickBot="1">
       <c r="B7" s="44"/>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="142" t="s">
-        <v>80</v>
+      <c r="D7" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="141" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="131">
@@ -4226,7 +4260,7 @@
         <v>295.34734133790732</v>
       </c>
       <c r="I7" s="46"/>
-      <c r="J7" s="164">
+      <c r="J7" s="162">
         <f>Notes!D94</f>
         <v>295.34734133790732</v>
       </c>
@@ -4234,11 +4268,11 @@
       <c r="L7" s="46"/>
       <c r="M7" s="92"/>
     </row>
-    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>2</v>
@@ -4248,21 +4282,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="93"/>
-      <c r="H8" s="165">
+      <c r="H8" s="163">
         <f>J8</f>
         <v>0.86830069481906247</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="162">
         <f>Notes!E83</f>
         <v>0.86830069481906247</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="95"/>
       <c r="B9" s="96"/>
       <c r="C9" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>2</v>
@@ -4272,21 +4306,21 @@
         <v>2</v>
       </c>
       <c r="G9" s="130"/>
-      <c r="H9" s="165">
+      <c r="H9" s="163">
         <f t="shared" ref="H9:H12" si="0">J9</f>
         <v>0.13169930518093759</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="162">
         <f>Notes!E84</f>
         <v>0.13169930518093759</v>
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="A10" s="95"/>
       <c r="B10" s="96"/>
       <c r="C10" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>2</v>
@@ -4296,20 +4330,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="93"/>
-      <c r="H10" s="165">
+      <c r="H10" s="163">
         <f t="shared" si="0"/>
         <v>0.59743916609034486</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="162">
         <f>Notes!E85</f>
         <v>0.59743916609034486</v>
       </c>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="34" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="96"/>
       <c r="C11" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>2</v>
@@ -4319,34 +4353,34 @@
         <v>2</v>
       </c>
       <c r="G11" s="93"/>
-      <c r="H11" s="165">
+      <c r="H11" s="163">
         <f t="shared" si="0"/>
         <v>0.40256083390965514</v>
       </c>
-      <c r="J11" s="164">
+      <c r="J11" s="162">
         <f>Notes!E86</f>
         <v>0.40256083390965514</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="17" thickBot="1">
       <c r="A12" s="95"/>
       <c r="B12" s="96"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="142" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="165">
+      <c r="H12" s="163">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="I12" s="93"/>
-      <c r="J12" s="162">
+      <c r="J12" s="160">
         <f>Notes!E16</f>
         <v>8000</v>
       </c>
@@ -4355,7 +4389,7 @@
       <c r="M12" s="117"/>
       <c r="N12" s="95"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="44"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -4371,7 +4405,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="17" thickBot="1">
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="12" t="s">
@@ -4390,7 +4424,7 @@
       <c r="O14" s="105"/>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="17" thickBot="1">
       <c r="A15" s="95"/>
       <c r="B15" s="96"/>
       <c r="C15" s="38" t="s">
@@ -4399,11 +4433,11 @@
       <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="159">
         <f>J15</f>
         <v>4477015437.3927946</v>
       </c>
@@ -4419,7 +4453,7 @@
       <c r="O15" s="105"/>
       <c r="P15" s="92"/>
     </row>
-    <row r="16" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="17" thickBot="1">
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
       <c r="C16" s="38" t="s">
@@ -4446,7 +4480,7 @@
       <c r="K16" s="105"/>
       <c r="P16" s="92"/>
     </row>
-    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="17" thickBot="1">
       <c r="A17" s="95"/>
       <c r="B17" s="96"/>
       <c r="C17" s="118" t="s">
@@ -4473,7 +4507,7 @@
       <c r="O17" s="105"/>
       <c r="P17" s="108"/>
     </row>
-    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17" thickBot="1">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="118" t="s">
@@ -4496,7 +4530,7 @@
       <c r="O18" s="105"/>
       <c r="P18" s="108"/>
     </row>
-    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17" thickBot="1">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="118" t="s">
@@ -4519,7 +4553,7 @@
       <c r="O19" s="100"/>
       <c r="P19" s="108"/>
     </row>
-    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="17" thickBot="1">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="126" t="s">
@@ -4542,7 +4576,7 @@
       <c r="O20" s="100"/>
       <c r="P20" s="108"/>
     </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="17" thickBot="1">
       <c r="A21" s="120"/>
       <c r="B21" s="121"/>
       <c r="C21" s="118" t="s">
@@ -4567,97 +4601,92 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="153" t="s">
-        <v>48</v>
+    <row r="22" spans="1:16" ht="17" thickBot="1">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="93" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" s="98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="120"/>
-      <c r="H22" s="122">
+        <v>52</v>
+      </c>
+      <c r="H22" s="107">
         <f>J22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="123"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="136" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="98">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="107">
+      <c r="I22" s="100"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="108"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="122">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="108"/>
-    </row>
-    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="22"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="123"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickBot="1">
+      <c r="C24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="89"/>
       <c r="E24" s="101"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="122">
-        <f>J24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="123"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="123"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="117" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="89"/>
-      <c r="H25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="F24" s="89"/>
+      <c r="H24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1">
+      <c r="B25" s="44"/>
+      <c r="C25" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="107">
+        <f>J25</f>
+        <v>20</v>
+      </c>
+      <c r="J25" s="162">
+        <f>Notes!E15</f>
+        <v>20</v>
+      </c>
+      <c r="P25" s="92"/>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="93" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>1</v>
@@ -4667,91 +4696,68 @@
         <v>1</v>
       </c>
       <c r="H26" s="107">
-        <f>J26</f>
-        <v>20</v>
-      </c>
-      <c r="J26" s="164">
-        <f>Notes!E15</f>
-        <v>20</v>
-      </c>
-      <c r="P26" s="92"/>
-    </row>
-    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="117"/>
+    </row>
+    <row r="27" spans="1:16" ht="17" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="98"/>
+        <v>54</v>
+      </c>
+      <c r="E27" s="109"/>
       <c r="F27" s="22" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="H27" s="107">
         <v>0</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="106"/>
       <c r="P27" s="117"/>
     </row>
-    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="17" thickBot="1">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="93" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="109"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="98">
+        <v>0</v>
+      </c>
       <c r="F28" s="22" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H28" s="107">
         <v>0</v>
       </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="105"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="106"/>
       <c r="L28" s="105"/>
       <c r="M28" s="105"/>
       <c r="N28" s="105"/>
       <c r="O28" s="106"/>
       <c r="P28" s="117"/>
-    </row>
-    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="98">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="107">
-        <v>0</v>
-      </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4760,8 +4766,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
@@ -4770,23 +4776,23 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="53" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="71" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="57" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="53"/>
+    <col min="8" max="8" width="12.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4797,7 +4803,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="56"/>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -4810,7 +4816,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="56"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4821,7 +4827,7 @@
       <c r="I4" s="59"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="60"/>
       <c r="C5" s="14" t="s">
         <v>15</v>
@@ -4836,7 +4842,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>17</v>
@@ -4848,163 +4854,163 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="167" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="187">
+    <row r="6" spans="2:10">
+      <c r="B6" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="152"/>
+      <c r="H6" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="167" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="167" t="s">
-        <v>108</v>
+    <row r="7" spans="2:10">
+      <c r="C7" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>107</v>
       </c>
       <c r="F7" s="53">
         <v>2012</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="187">
+        <v>106</v>
+      </c>
+      <c r="H7" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="167" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="167" t="s">
-        <v>110</v>
+    <row r="8" spans="2:10">
+      <c r="C8" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="165" t="s">
+        <v>109</v>
       </c>
       <c r="F8" s="53">
         <v>2015</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="187">
+        <v>108</v>
+      </c>
+      <c r="H8" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="C9" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="D9" s="165" t="s">
+        <v>111</v>
       </c>
       <c r="F9" s="53">
         <v>2011</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="187">
+        <v>110</v>
+      </c>
+      <c r="H9" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="187">
+    <row r="10" spans="2:10">
+      <c r="H10" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="167" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="185">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="187">
-        <v>42979</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="167" t="s">
-        <v>114</v>
+      <c r="D12" s="165" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="53">
         <v>2017</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="187">
+        <v>112</v>
+      </c>
+      <c r="H12" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="C13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="167" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>115</v>
       </c>
       <c r="F13" s="53">
         <v>2017</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="187">
+        <v>114</v>
+      </c>
+      <c r="H13" s="185">
         <v>42979</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="167" t="s">
+    <row r="14" spans="2:10">
+      <c r="C14" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="E14" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="F14" s="180">
+        <v>2015</v>
+      </c>
+      <c r="G14" s="180">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="181">
+        <v>42339</v>
+      </c>
+      <c r="I14" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="182">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="182">
-        <v>2015</v>
-      </c>
-      <c r="H14" s="183">
-        <v>42339</v>
-      </c>
-      <c r="I14" s="184" t="s">
+      <c r="J14" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="182" t="s">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="165" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="167" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="167" t="s">
+      <c r="F15" s="165">
+        <v>2013</v>
+      </c>
+      <c r="G15" s="165">
+        <v>2013</v>
+      </c>
+      <c r="H15" s="183">
+        <v>42373</v>
+      </c>
+      <c r="I15" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="167">
-        <v>2013</v>
-      </c>
-      <c r="G15" s="167">
-        <v>2013</v>
-      </c>
-      <c r="H15" s="185">
-        <v>42373</v>
-      </c>
-      <c r="I15" s="186" t="s">
+      <c r="J15" s="165" t="s">
         <v>169</v>
-      </c>
-      <c r="J15" s="167" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5015,32 +5021,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Q308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="61" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="61" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="61" customWidth="1"/>
     <col min="4" max="4" width="19" style="61" customWidth="1"/>
     <col min="5" max="5" width="17" style="61" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="61" customWidth="1"/>
-    <col min="7" max="13" width="10.83203125" style="61"/>
-    <col min="14" max="14" width="15.6640625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="61"/>
-    <col min="16" max="16" width="12.1640625" style="61" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="61"/>
+    <col min="6" max="6" width="6.140625" style="61" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="61"/>
+    <col min="14" max="14" width="15.7109375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="61"/>
+    <col min="16" max="16" width="12.140625" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="10.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -5055,7 +5061,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="90"/>
       <c r="C3" s="69" t="s">
@@ -5077,14 +5083,14 @@
       <c r="M3" s="66"/>
       <c r="N3" s="91"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" customHeight="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -5093,16 +5099,16 @@
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" customHeight="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -5111,16 +5117,16 @@
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="155"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -5129,20 +5135,20 @@
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="155"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="68">
         <v>2.016</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
@@ -5150,20 +5156,20 @@
       <c r="M7" s="68"/>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" customHeight="1">
       <c r="A8" s="65"/>
-      <c r="B8" s="155"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="68">
         <v>28</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
@@ -5171,20 +5177,20 @@
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" customHeight="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="155"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="68">
         <v>44</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -5192,21 +5198,21 @@
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="17" customHeight="1">
       <c r="A10" s="65"/>
-      <c r="B10" s="155"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="68">
         <f>12*11+1.008*24</f>
         <v>156.19200000000001</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -5214,20 +5220,20 @@
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" customHeight="1">
       <c r="A11" s="65"/>
-      <c r="B11" s="155"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="68">
         <v>32</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
@@ -5235,20 +5241,20 @@
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="65"/>
-      <c r="B12" s="155"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="68">
         <v>32.031999999999996</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+        <v>89</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -5256,24 +5262,24 @@
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" customHeight="1">
       <c r="A13" s="65"/>
-      <c r="B13" s="155"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="68">
         <f>2*12+6*1.008+16</f>
         <v>46.048000000000002</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="68">
         <v>0.78900000000000003</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -5282,14 +5288,14 @@
       <c r="M13" s="68"/>
       <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" customHeight="1">
       <c r="A14" s="65"/>
-      <c r="B14" s="155"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
@@ -5298,19 +5304,19 @@
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
-    <row r="15" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" customHeight="1">
       <c r="A15" s="65"/>
-      <c r="B15" s="155"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="68">
         <v>20</v>
       </c>
-      <c r="F15" s="156"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -5320,19 +5326,19 @@
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
-    <row r="16" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" customHeight="1">
       <c r="A16" s="65"/>
-      <c r="B16" s="155"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="68">
         <v>8000</v>
       </c>
-      <c r="F16" s="156"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
@@ -5342,19 +5348,19 @@
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17" customHeight="1">
       <c r="A17" s="65"/>
-      <c r="B17" s="155"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="156"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="154"/>
       <c r="E17" s="68">
         <v>10.01</v>
       </c>
-      <c r="F17" s="156"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
@@ -5364,8 +5370,8 @@
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" thickBot="1"/>
+    <row r="19" spans="1:14">
       <c r="B19" s="62"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -5380,7 +5386,7 @@
       <c r="M19" s="63"/>
       <c r="N19" s="64"/>
     </row>
-    <row r="20" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="90"/>
       <c r="C20" s="69" t="s">
@@ -5402,16 +5408,16 @@
       <c r="M20" s="66"/>
       <c r="N20" s="91"/>
     </row>
-    <row r="21" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17" customHeight="1">
       <c r="A21" s="65"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
@@ -5420,13 +5426,13 @@
       <c r="M21" s="68"/>
       <c r="N21" s="68"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="65"/>
-      <c r="B22" s="155"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="68"/>
-      <c r="D22" s="173"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="156"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
@@ -5436,57 +5442,57 @@
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="178" t="s">
-        <v>92</v>
+      <c r="C23" s="176" t="s">
+        <v>91</v>
       </c>
       <c r="H23" s="68"/>
-      <c r="I23" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="180" t="s">
+      <c r="I23" s="177" t="s">
         <v>91</v>
       </c>
+      <c r="J23" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="178" t="s">
+        <v>90</v>
+      </c>
       <c r="L23" s="68"/>
-      <c r="M23" s="156"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="68"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="65"/>
-      <c r="B24" s="174" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="174" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="169"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="170"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="167"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="168"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1">
       <c r="A25" s="65"/>
-      <c r="B25" s="160"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="160" t="s">
-        <v>200</v>
+      <c r="H25" s="166"/>
+      <c r="I25" s="158" t="s">
+        <v>199</v>
       </c>
       <c r="J25" s="68"/>
       <c r="K25" s="68">
@@ -5494,25 +5500,25 @@
       </c>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
-      <c r="N25" s="168"/>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="166"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="65"/>
-      <c r="B26" s="160"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="68">
         <v>1</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="68"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="160" t="s">
-        <v>104</v>
+      <c r="H26" s="166"/>
+      <c r="I26" s="158" t="s">
+        <v>103</v>
       </c>
       <c r="J26" s="68"/>
       <c r="K26" s="68">
@@ -5520,27 +5526,27 @@
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
-      <c r="N26" s="168" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="166" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="65"/>
-      <c r="B27" s="160"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="68">
         <v>0.99990000000000001</v>
       </c>
       <c r="E27" s="68"/>
-      <c r="F27" s="176" t="s">
-        <v>144</v>
+      <c r="F27" s="174" t="s">
+        <v>143</v>
       </c>
       <c r="G27" s="68"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="160" t="s">
-        <v>124</v>
+      <c r="H27" s="166"/>
+      <c r="I27" s="158" t="s">
+        <v>123</v>
       </c>
       <c r="J27" s="68"/>
       <c r="K27" s="68">
@@ -5548,48 +5554,48 @@
       </c>
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
-      <c r="N27" s="168"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="166"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1">
       <c r="A28" s="65"/>
-      <c r="B28" s="160"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="176"/>
+        <v>145</v>
+      </c>
+      <c r="F28" s="174"/>
       <c r="G28" s="68"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="160" t="s">
-        <v>125</v>
+      <c r="H28" s="166"/>
+      <c r="I28" s="158" t="s">
+        <v>124</v>
       </c>
       <c r="J28" s="68"/>
-      <c r="K28" s="190">
+      <c r="K28" s="188">
         <f>D71</f>
         <v>5760.4928763958414</v>
       </c>
       <c r="L28" s="68"/>
       <c r="M28" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="N28" s="168"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="N28" s="166"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1">
       <c r="A29" s="65"/>
-      <c r="B29" s="160"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
-      <c r="F29" s="176" t="s">
-        <v>147</v>
+      <c r="F29" s="174" t="s">
+        <v>146</v>
       </c>
       <c r="G29" s="68"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="160" t="s">
-        <v>127</v>
+      <c r="H29" s="166"/>
+      <c r="I29" s="158" t="s">
+        <v>126</v>
       </c>
       <c r="J29" s="68"/>
       <c r="K29" s="68">
@@ -5597,30 +5603,30 @@
       </c>
       <c r="L29" s="68"/>
       <c r="M29" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="168"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="N29" s="166"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1">
       <c r="A30" s="65"/>
-      <c r="B30" s="160"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="68">
         <f>55+45</f>
         <v>100</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="176" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="F30" s="174" t="s">
+        <v>147</v>
       </c>
       <c r="G30" s="68"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="160" t="s">
-        <v>129</v>
+      <c r="H30" s="166"/>
+      <c r="I30" s="158" t="s">
+        <v>128</v>
       </c>
       <c r="J30" s="68"/>
       <c r="K30" s="68">
@@ -5629,28 +5635,28 @@
       </c>
       <c r="L30" s="68"/>
       <c r="M30" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" s="168"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="160"/>
+        <v>129</v>
+      </c>
+      <c r="N30" s="166"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="158"/>
       <c r="C31" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="68">
         <v>3.2</v>
       </c>
       <c r="E31" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="176" t="s">
-        <v>151</v>
-      </c>
       <c r="G31" s="68"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="160" t="s">
-        <v>131</v>
+      <c r="H31" s="166"/>
+      <c r="I31" s="158" t="s">
+        <v>130</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="68">
@@ -5658,20 +5664,20 @@
       </c>
       <c r="L31" s="68"/>
       <c r="M31" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="168"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="160"/>
+        <v>129</v>
+      </c>
+      <c r="N31" s="166"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="158"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="176"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="68"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="160" t="s">
-        <v>159</v>
+      <c r="H32" s="166"/>
+      <c r="I32" s="158" t="s">
+        <v>158</v>
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="68">
@@ -5679,19 +5685,19 @@
       </c>
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
-      <c r="N32" s="168"/>
-    </row>
-    <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="166"/>
+    </row>
+    <row r="33" spans="1:17" ht="18" customHeight="1">
       <c r="A33" s="65"/>
-      <c r="B33" s="160"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
-      <c r="F33" s="176"/>
+      <c r="F33" s="174"/>
       <c r="G33" s="68"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="160" t="s">
-        <v>158</v>
+      <c r="H33" s="166"/>
+      <c r="I33" s="158" t="s">
+        <v>157</v>
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="68">
@@ -5700,21 +5706,21 @@
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="N33" s="168"/>
-    </row>
-    <row r="34" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="N33" s="166"/>
+    </row>
+    <row r="34" spans="1:17" ht="18" customHeight="1">
       <c r="A34" s="65"/>
-      <c r="B34" s="160"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
-      <c r="F34" s="176"/>
+      <c r="F34" s="174"/>
       <c r="G34" s="68"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="160" t="s">
-        <v>129</v>
+      <c r="H34" s="166"/>
+      <c r="I34" s="158" t="s">
+        <v>128</v>
       </c>
       <c r="J34" s="68"/>
       <c r="K34" s="68">
@@ -5723,127 +5729,127 @@
       </c>
       <c r="L34" s="68"/>
       <c r="M34" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" s="168"/>
+        <v>129</v>
+      </c>
+      <c r="N34" s="166"/>
       <c r="O34" s="61">
         <v>930</v>
       </c>
       <c r="P34" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q34" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="Q34" s="61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="160"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="158"/>
       <c r="C35" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="68">
         <v>80</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="177" t="s">
-        <v>108</v>
+        <v>151</v>
+      </c>
+      <c r="F35" s="175" t="s">
+        <v>107</v>
       </c>
       <c r="G35" s="68"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="160" t="s">
-        <v>117</v>
+      <c r="H35" s="166"/>
+      <c r="I35" s="158" t="s">
+        <v>116</v>
       </c>
       <c r="J35" s="68"/>
-      <c r="K35" s="181">
+      <c r="K35" s="179">
         <f>(O34+O35)/2</f>
         <v>1000</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="N35" s="168"/>
+        <v>131</v>
+      </c>
+      <c r="N35" s="166"/>
       <c r="O35" s="61">
         <v>1070</v>
       </c>
       <c r="P35" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18" customHeight="1">
       <c r="A36" s="65"/>
-      <c r="B36" s="160"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="68">
         <f>D35*D26</f>
         <v>80</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="176"/>
+        <v>98</v>
+      </c>
+      <c r="F36" s="174"/>
       <c r="G36" s="68"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="160" t="s">
-        <v>133</v>
+      <c r="H36" s="166"/>
+      <c r="I36" s="158" t="s">
+        <v>132</v>
       </c>
       <c r="J36" s="68"/>
-      <c r="K36" s="190">
+      <c r="K36" s="188">
         <f>D26*(E8/E9)*K27</f>
         <v>0.6172727272727272</v>
       </c>
       <c r="L36" s="68"/>
       <c r="M36" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="N36" s="168"/>
-    </row>
-    <row r="37" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="N36" s="166"/>
+    </row>
+    <row r="37" spans="1:17" ht="18" customHeight="1">
       <c r="A37" s="65"/>
-      <c r="B37" s="160"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="68">
         <f>$AS$15</f>
         <v>0</v>
       </c>
       <c r="E37" s="68"/>
-      <c r="F37" s="176"/>
+      <c r="F37" s="174"/>
       <c r="G37" s="68"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="160" t="s">
-        <v>125</v>
+      <c r="H37" s="166"/>
+      <c r="I37" s="158" t="s">
+        <v>124</v>
       </c>
       <c r="J37" s="68"/>
-      <c r="K37" s="190">
+      <c r="K37" s="188">
         <f>K36*D70</f>
         <v>2262.7787307032586</v>
       </c>
       <c r="L37" s="68"/>
       <c r="M37" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="N37" s="168"/>
-    </row>
-    <row r="38" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="N37" s="166"/>
+    </row>
+    <row r="38" spans="1:17" ht="18" customHeight="1">
       <c r="A38" s="65"/>
-      <c r="B38" s="160"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
-      <c r="F38" s="176"/>
+      <c r="F38" s="174"/>
       <c r="G38" s="68"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="160" t="s">
-        <v>136</v>
+      <c r="H38" s="166"/>
+      <c r="I38" s="158" t="s">
+        <v>135</v>
       </c>
       <c r="J38" s="68"/>
       <c r="K38" s="68">
@@ -5851,26 +5857,26 @@
       </c>
       <c r="L38" s="68"/>
       <c r="M38" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="N38" s="168"/>
+        <v>127</v>
+      </c>
+      <c r="N38" s="166"/>
       <c r="O38" s="127"/>
     </row>
-    <row r="39" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="18" customHeight="1">
       <c r="A39" s="65"/>
-      <c r="B39" s="160"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" s="68">
         <v>8000</v>
       </c>
       <c r="E39" s="68"/>
-      <c r="F39" s="176"/>
+      <c r="F39" s="174"/>
       <c r="G39" s="68"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="160" t="s">
-        <v>137</v>
+      <c r="H39" s="166"/>
+      <c r="I39" s="158" t="s">
+        <v>136</v>
       </c>
       <c r="J39" s="68"/>
       <c r="K39" s="68">
@@ -5878,81 +5884,81 @@
       </c>
       <c r="L39" s="68"/>
       <c r="M39" s="68"/>
-      <c r="N39" s="168"/>
-    </row>
-    <row r="40" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="166"/>
+    </row>
+    <row r="40" spans="1:17" ht="18" customHeight="1">
       <c r="A40" s="65"/>
-      <c r="B40" s="160"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="68">
         <v>5</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="176" t="s">
-        <v>112</v>
+        <v>152</v>
+      </c>
+      <c r="F40" s="174" t="s">
+        <v>111</v>
       </c>
       <c r="G40" s="68"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="160" t="s">
-        <v>138</v>
+      <c r="H40" s="166"/>
+      <c r="I40" s="158" t="s">
+        <v>137</v>
       </c>
       <c r="J40" s="68"/>
-      <c r="K40" s="190">
+      <c r="K40" s="188">
         <f>K37/K38*1000*K39</f>
         <v>282.84734133790732</v>
       </c>
       <c r="L40" s="68"/>
       <c r="M40" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="N40" s="168"/>
-    </row>
-    <row r="41" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="N40" s="166"/>
+    </row>
+    <row r="41" spans="1:17" ht="18" customHeight="1">
       <c r="A41" s="65"/>
-      <c r="B41" s="160"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="68">
         <v>20</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="176" t="s">
-        <v>112</v>
+        <v>153</v>
+      </c>
+      <c r="F41" s="174" t="s">
+        <v>111</v>
       </c>
       <c r="G41" s="68"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="160" t="s">
-        <v>117</v>
+      <c r="H41" s="166"/>
+      <c r="I41" s="158" t="s">
+        <v>116</v>
       </c>
       <c r="J41" s="68"/>
-      <c r="K41" s="190">
+      <c r="K41" s="188">
         <f>K33*K40/1000</f>
         <v>367.70154373927949</v>
       </c>
       <c r="L41" s="68"/>
       <c r="M41" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="N41" s="168"/>
-    </row>
-    <row r="42" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="N41" s="166"/>
+    </row>
+    <row r="42" spans="1:17" ht="18" customHeight="1">
       <c r="A42" s="65"/>
-      <c r="B42" s="160"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="68"/>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="160" t="s">
-        <v>139</v>
+      <c r="H42" s="166"/>
+      <c r="I42" s="158" t="s">
+        <v>138</v>
       </c>
       <c r="J42" s="68"/>
       <c r="K42" s="68">
@@ -5961,34 +5967,34 @@
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="168"/>
-    </row>
-    <row r="43" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="166"/>
+    </row>
+    <row r="43" spans="1:17" ht="18" customHeight="1">
       <c r="A43" s="65"/>
-      <c r="B43" s="160"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="160"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="158"/>
       <c r="J43" s="68"/>
       <c r="K43" s="68"/>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="168"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="171"/>
+      <c r="N43" s="166"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="169"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="171" t="s">
-        <v>118</v>
+      <c r="H44" s="170"/>
+      <c r="I44" s="169" t="s">
+        <v>117</v>
       </c>
       <c r="J44" s="66"/>
       <c r="K44" s="66">
@@ -5998,9 +6004,9 @@
       <c r="M44" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="172"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N44" s="170"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
@@ -6015,10 +6021,10 @@
       <c r="M45" s="68"/>
       <c r="N45" s="68"/>
     </row>
-    <row r="46" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="21">
       <c r="B46" s="68"/>
-      <c r="C46" s="188" t="s">
-        <v>173</v>
+      <c r="C46" s="186" t="s">
+        <v>172</v>
       </c>
       <c r="D46" s="68"/>
       <c r="E46" s="68"/>
@@ -6032,22 +6038,22 @@
       <c r="M46" s="68"/>
       <c r="N46" s="68"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="15" customHeight="1"/>
+    <row r="48" spans="1:17">
       <c r="C48" s="61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1">
       <c r="A50" s="65"/>
       <c r="C50" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="E50" s="61" t="s">
         <v>176</v>
-      </c>
-      <c r="E50" s="61" t="s">
-        <v>177</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
@@ -6058,26 +6064,26 @@
       <c r="M50" s="68"/>
       <c r="N50" s="68"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="D51" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="E51" s="61" t="s">
+    </row>
+    <row r="52" spans="1:14">
+      <c r="D52" s="61" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D52" s="61" t="s">
+      <c r="E52" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="G52" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:14" ht="18" customHeight="1">
       <c r="A53" s="65"/>
       <c r="G53" s="68"/>
       <c r="H53" s="68"/>
@@ -6088,10 +6094,10 @@
       <c r="M53" s="68"/>
       <c r="N53" s="68"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="B54" s="68"/>
       <c r="C54" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="68"/>
       <c r="E54" s="68"/>
@@ -6105,7 +6111,7 @@
       <c r="M54" s="68"/>
       <c r="N54" s="68"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" s="68"/>
       <c r="C55" s="68"/>
       <c r="D55" s="68"/>
@@ -6120,7 +6126,7 @@
       <c r="M55" s="68"/>
       <c r="N55" s="68"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" s="68"/>
       <c r="C56" s="68"/>
       <c r="D56" s="68"/>
@@ -6135,12 +6141,12 @@
       <c r="M56" s="68"/>
       <c r="N56" s="68"/>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="C57" s="61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="D59" s="61">
         <f>K26*100</f>
         <v>70</v>
@@ -6149,17 +6155,17 @@
         <v>49</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="18" customHeight="1">
       <c r="A60" s="65"/>
       <c r="D60" s="61">
         <f>0.0032/(D59/100)</f>
         <v>4.5714285714285718E-3</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G60" s="68"/>
       <c r="H60" s="68"/>
@@ -6170,22 +6176,22 @@
       <c r="M60" s="68"/>
       <c r="N60" s="68"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D62" s="189">
+    <row r="62" spans="1:14">
+      <c r="D62" s="187">
         <v>1</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="D63" s="189">
+      <c r="D63" s="187">
         <f>D62/44</f>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G63" s="68"/>
       <c r="H63" s="68"/>
@@ -6196,15 +6202,15 @@
       <c r="M63" s="68"/>
       <c r="N63" s="68"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="B64" s="68"/>
       <c r="C64" s="68"/>
-      <c r="D64" s="190">
+      <c r="D64" s="188">
         <f>D63*28</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" s="68"/>
       <c r="G64" s="68"/>
@@ -6216,10 +6222,10 @@
       <c r="M64" s="68"/>
       <c r="N64" s="68"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="B65" s="68"/>
       <c r="C65" s="68"/>
-      <c r="D65" s="190">
+      <c r="D65" s="188">
         <f>0.636/D64</f>
         <v>0.99942857142857144</v>
       </c>
@@ -6234,34 +6240,34 @@
       <c r="M65" s="68"/>
       <c r="N65" s="68"/>
     </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="189"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="15" customHeight="1">
+      <c r="D66" s="187"/>
+    </row>
+    <row r="67" spans="1:16">
       <c r="C67" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="187"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="D68" s="187">
+        <v>510</v>
+      </c>
+      <c r="E68" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="189"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D68" s="189">
-        <v>510</v>
-      </c>
-      <c r="E68" s="61" t="s">
+      <c r="P68" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="P68" s="61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:16" ht="18" customHeight="1">
       <c r="A69" s="65"/>
-      <c r="D69" s="189">
+      <c r="D69" s="187">
         <f>D60*D68*1000</f>
         <v>2331.4285714285716</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" s="68"/>
       <c r="H69" s="68"/>
@@ -6272,25 +6278,25 @@
       <c r="M69" s="68"/>
       <c r="N69" s="68"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D70" s="191">
+    <row r="70" spans="1:16">
+      <c r="D70" s="189">
         <f>D69*1000/636</f>
         <v>3665.7681940700809</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D71" s="189">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="D71" s="187">
         <f>D70/(E8/E9)</f>
         <v>5760.4928763958414</v>
       </c>
       <c r="E71" s="61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="18" customHeight="1">
       <c r="A72" s="65"/>
       <c r="G72" s="68"/>
       <c r="H72" s="68"/>
@@ -6301,7 +6307,7 @@
       <c r="M72" s="68"/>
       <c r="N72" s="68"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="B73" s="68"/>
       <c r="C73" s="68"/>
       <c r="D73" s="68"/>
@@ -6316,7 +6322,7 @@
       <c r="M73" s="68"/>
       <c r="N73" s="68"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="B74" s="68"/>
       <c r="C74" s="68"/>
       <c r="D74" s="68"/>
@@ -6331,8 +6337,8 @@
       <c r="M74" s="68"/>
       <c r="N74" s="68"/>
     </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15" customHeight="1"/>
+    <row r="78" spans="1:16" ht="18" customHeight="1" thickBot="1">
       <c r="A78" s="65"/>
       <c r="G78" s="68"/>
       <c r="H78" s="68"/>
@@ -6343,7 +6349,7 @@
       <c r="M78" s="68"/>
       <c r="N78" s="68"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="B79" s="62"/>
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
@@ -6358,7 +6364,7 @@
       <c r="M79" s="63"/>
       <c r="N79" s="64"/>
     </row>
-    <row r="80" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="17" customHeight="1">
       <c r="A80" s="65"/>
       <c r="B80" s="90"/>
       <c r="C80" s="69"/>
@@ -6374,16 +6380,16 @@
       <c r="M80" s="66"/>
       <c r="N80" s="91"/>
     </row>
-    <row r="81" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="17" customHeight="1">
       <c r="A81" s="65"/>
-      <c r="B81" s="155"/>
-      <c r="C81" s="156" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="154"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="154"/>
       <c r="H81" s="68"/>
       <c r="I81" s="68"/>
       <c r="J81" s="68"/>
@@ -6392,14 +6398,14 @@
       <c r="M81" s="68"/>
       <c r="N81" s="68"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="65"/>
-      <c r="B82" s="155"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
+      <c r="B82" s="153"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="68"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="F82" s="154"/>
+      <c r="G82" s="154"/>
       <c r="H82" s="68"/>
       <c r="I82" s="68"/>
       <c r="J82" s="68"/>
@@ -6408,13 +6414,13 @@
       <c r="M82" s="68"/>
       <c r="N82" s="68"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="B83" s="67"/>
-      <c r="C83" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="138"/>
-      <c r="E83" s="157">
+      <c r="C83" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="137"/>
+      <c r="E83" s="155">
         <f>(D30+K28)/(D30+K28+D31/3.6*1000)</f>
         <v>0.86830069481906247</v>
       </c>
@@ -6429,46 +6435,46 @@
       <c r="N83" s="68"/>
       <c r="O83" s="68"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="B84" s="67"/>
-      <c r="C84" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="138"/>
-      <c r="E84" s="157">
+      <c r="C84" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="137"/>
+      <c r="E84" s="155">
         <f>(D31/3.6*1000)/(D30+K28+(D31/3.6*1000))</f>
         <v>0.13169930518093759</v>
       </c>
       <c r="N84" s="68"/>
       <c r="O84" s="68"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="B85" s="67"/>
-      <c r="C85" s="159" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="138"/>
-      <c r="E85" s="157">
+      <c r="C85" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="137"/>
+      <c r="E85" s="155">
         <f>(K26*K28)/(K28+D30+D31/3.6*1000)</f>
         <v>0.59743916609034486</v>
       </c>
       <c r="N85" s="68"/>
       <c r="O85" s="68"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="B86" s="67"/>
-      <c r="C86" s="159" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="158"/>
-      <c r="E86" s="157">
+      <c r="C86" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="156"/>
+      <c r="E86" s="155">
         <f>1-E85</f>
         <v>0.40256083390965514</v>
       </c>
       <c r="N86" s="68"/>
       <c r="O86" s="68"/>
     </row>
-    <row r="87" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="17" thickBot="1">
       <c r="B87" s="67"/>
       <c r="C87" s="68"/>
       <c r="D87" s="68"/>
@@ -6476,7 +6482,7 @@
       <c r="N87" s="68"/>
       <c r="O87" s="68"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="B88" s="62"/>
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
@@ -6491,7 +6497,7 @@
       <c r="M88" s="63"/>
       <c r="N88" s="64"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="65"/>
       <c r="B89" s="90"/>
       <c r="C89" s="69" t="s">
@@ -6513,16 +6519,16 @@
       <c r="M89" s="66"/>
       <c r="N89" s="91"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="65"/>
-      <c r="B90" s="155"/>
-      <c r="C90" s="156" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="154"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154"/>
       <c r="H90" s="68"/>
       <c r="I90" s="68"/>
       <c r="J90" s="68"/>
@@ -6531,74 +6537,74 @@
       <c r="M90" s="68"/>
       <c r="N90" s="68"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="B91" s="67"/>
       <c r="C91" s="65"/>
       <c r="N91" s="68"/>
       <c r="O91" s="68"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="B92" s="67"/>
       <c r="C92" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D92" s="61">
         <f>D30*1000/D39</f>
         <v>12.5</v>
       </c>
       <c r="E92" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N92" s="68"/>
       <c r="O92" s="68"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="B93" s="67"/>
       <c r="C93" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="D93" s="189">
+        <v>195</v>
+      </c>
+      <c r="D93" s="187">
         <f>K40</f>
         <v>282.84734133790732</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N93" s="68"/>
       <c r="O93" s="68"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="B94" s="67"/>
       <c r="C94" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="191">
+        <v>196</v>
+      </c>
+      <c r="D94" s="189">
         <f>SUM(D92:D93)</f>
         <v>295.34734133790732</v>
       </c>
       <c r="E94" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N94" s="68"/>
       <c r="O94" s="68"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="B95" s="67"/>
       <c r="N95" s="68"/>
       <c r="O95" s="68"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" hidden="1">
       <c r="B96" s="67"/>
       <c r="E96" s="128"/>
       <c r="N96" s="68"/>
       <c r="O96" s="68"/>
     </row>
-    <row r="97" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="17" thickBot="1">
       <c r="B97" s="67"/>
       <c r="N97" s="68"/>
       <c r="O97" s="68"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="B98" s="62"/>
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
@@ -6613,7 +6619,7 @@
       <c r="M98" s="63"/>
       <c r="N98" s="64"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="65"/>
       <c r="B99" s="90"/>
       <c r="C99" s="69" t="s">
@@ -6635,16 +6641,16 @@
       <c r="M99" s="66"/>
       <c r="N99" s="91"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="65"/>
-      <c r="B100" s="155"/>
-      <c r="C100" s="156" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="156"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="156"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="154" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="154"/>
+      <c r="E100" s="154"/>
+      <c r="F100" s="154"/>
+      <c r="G100" s="154"/>
       <c r="H100" s="68"/>
       <c r="I100" s="68"/>
       <c r="J100" s="68"/>
@@ -6653,721 +6659,721 @@
       <c r="M100" s="68"/>
       <c r="N100" s="68"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="B101" s="67"/>
       <c r="N101" s="68"/>
       <c r="O101" s="68"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="B102" s="67"/>
       <c r="C102" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="61">
         <f>D36</f>
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="B103" s="67"/>
       <c r="C103" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="189">
+        <v>120</v>
+      </c>
+      <c r="D103" s="187">
         <f>K41</f>
         <v>367.70154373927949</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="B104" s="67"/>
-      <c r="C104" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="189">
+      <c r="C104" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="187">
         <f>D102+D103</f>
         <v>447.70154373927949</v>
       </c>
       <c r="E104" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="B105" s="67"/>
       <c r="C105" s="68"/>
-      <c r="D105" s="191">
+      <c r="D105" s="189">
         <f>D104*10000000</f>
         <v>4477015437.3927946</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="B106" s="67"/>
       <c r="C106" s="68"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="B107" s="67"/>
-      <c r="C107" s="156" t="s">
-        <v>119</v>
+      <c r="C107" s="154" t="s">
+        <v>118</v>
       </c>
       <c r="D107" s="61">
         <f>(D102*(D40/100)+D103*(K44/100))*1000000</f>
         <v>15031046.312178385</v>
       </c>
       <c r="E107" s="61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="B108" s="67"/>
       <c r="C108" s="68"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="B109" s="67"/>
       <c r="C109" s="68"/>
       <c r="E109" s="110"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="B110" s="67"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="B111" s="67"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="B112" s="67"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="67"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="67"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="67"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="67"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="67"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="67"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="67"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="67"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="67"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="67"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="67"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="67"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="67"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="67"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="67"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="67"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="67"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="67"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="67"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="67"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="67"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="67"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="67"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="67"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="67"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="67"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="67"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="67"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="67"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="67"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="67"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="67"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="67"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="67"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="67"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="67"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="67"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="67"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="67"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="67"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="67"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="67"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="67"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="67"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="67"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="129"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="129"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="129"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="129"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="129"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="129"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="129"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="129"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="129"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="129"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="129"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="129"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="129"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="129"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="129"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="129"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="129"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="129"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="129"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177" s="129"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2">
       <c r="B178" s="129"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2">
       <c r="B179" s="129"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2">
       <c r="B180" s="129"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2">
       <c r="B181" s="129"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2">
       <c r="B182" s="129"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2">
       <c r="B183" s="129"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2">
       <c r="B184" s="129"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2">
       <c r="B185" s="129"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2">
       <c r="B186" s="129"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2">
       <c r="B187" s="129"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2">
       <c r="B188" s="129"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2">
       <c r="B189" s="129"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2">
       <c r="B190" s="129"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2">
       <c r="B191" s="129"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2">
       <c r="B192" s="129"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2">
       <c r="B193" s="129"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2">
       <c r="B194" s="129"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2">
       <c r="B195" s="129"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2">
       <c r="B196" s="129"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2">
       <c r="B197" s="129"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2">
       <c r="B198" s="129"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2">
       <c r="B199" s="129"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2">
       <c r="B200" s="129"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2">
       <c r="B201" s="129"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2">
       <c r="B202" s="129"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2">
       <c r="B203" s="129"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2">
       <c r="B204" s="129"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2">
       <c r="B205" s="129"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2">
       <c r="B206" s="129"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2">
       <c r="B207" s="129"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2">
       <c r="B208" s="129"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="B209" s="129"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="B210" s="129"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="127"/>
       <c r="B211" s="129"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="127"/>
       <c r="B212" s="129"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="127"/>
       <c r="B213" s="129"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="127"/>
       <c r="B214" s="129"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="127"/>
       <c r="B215" s="129"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="127"/>
       <c r="B216" s="129"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="127"/>
       <c r="B217" s="129"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="127"/>
       <c r="B218" s="129"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="127"/>
       <c r="B219" s="129"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="127"/>
       <c r="B220" s="129"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="127"/>
       <c r="B221" s="129"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="127"/>
       <c r="B222" s="129"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="127"/>
       <c r="B223" s="129"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="127"/>
       <c r="B224" s="129"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="127"/>
       <c r="B225" s="129"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="127"/>
       <c r="B226" s="129"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="127"/>
       <c r="B227" s="129"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="127"/>
       <c r="B228" s="129"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="127"/>
       <c r="B229" s="129"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="127"/>
       <c r="B230" s="129"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="127"/>
       <c r="B231" s="129"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="127"/>
       <c r="B232" s="129"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="127"/>
       <c r="B233" s="129"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="127"/>
       <c r="B234" s="129"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="127"/>
       <c r="B235" s="129"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="127"/>
       <c r="B236" s="129"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="127"/>
       <c r="B237" s="129"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="127"/>
       <c r="B238" s="129"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="127"/>
       <c r="B239" s="129"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="127"/>
       <c r="B240" s="129"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="127"/>
       <c r="B241" s="129"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="127"/>
       <c r="B242" s="129"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="127"/>
       <c r="B243" s="129"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="127"/>
       <c r="B244" s="129"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="127"/>
       <c r="B245" s="129"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" s="127"/>
       <c r="B246" s="129"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="127"/>
       <c r="B247" s="129"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="127"/>
       <c r="B248" s="129"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="127"/>
       <c r="B249" s="129"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" s="127"/>
       <c r="B250" s="129"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="127"/>
       <c r="B251" s="129"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="127"/>
       <c r="B252" s="129"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" s="127"/>
       <c r="B253" s="129"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" s="127"/>
       <c r="B254" s="129"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="127"/>
       <c r="B255" s="129"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="127"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="127"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="127"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="127"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="127"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="127"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="127"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="127"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="127"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="127"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="127"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="127"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="127"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="127"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="127"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="127"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="127"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="127"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="127"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="127"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="127"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="127"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="127"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="127"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="127"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="127"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="127"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="127"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="127"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="127"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="127"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="127"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="127"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="127"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="127"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="127"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="127"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="127"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="127"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="127"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="127"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="127"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="127"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="127"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="127"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="127"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="127"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" s="127"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="127"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="127"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="127"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="127"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" s="127"/>
     </row>
   </sheetData>
